--- a/issue1.xlsx
+++ b/issue1.xlsx
@@ -447,32 +447,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>diya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cs2b</t>
+          <t>cs22B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>86h</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>t1</t>
+          <t>diya</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>43581</v>
+        <v>43594</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>43594</v>
+        <v>43607</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>43594</v>
+        <v>43607</v>
       </c>
     </row>
   </sheetData>
